--- a/examples/javascript/forms/Test/TestSQLiteGroupBy/TestSQLiteGroupBy/Data/Book1.xlsx
+++ b/examples/javascript/forms/Test/TestSQLiteGroupBy/TestSQLiteGroupBy/Data/Book1.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="24240" windowHeight="13350" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="24240" windowHeight="13350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FooStateEnum" sheetId="1" r:id="rId1"/>
     <sheet name="GooStateEnum" sheetId="2" r:id="rId2"/>
     <sheet name="Middle" sheetId="3" r:id="rId3"/>
+    <sheet name="MiddleAsGroupByGooWithCount" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Foo0</t>
   </si>
@@ -70,6 +71,36 @@
   </si>
   <si>
     <t>The 2 Rate 11</t>
+  </si>
+  <si>
+    <t>Count as long</t>
+  </si>
+  <si>
+    <t>Goo3</t>
+  </si>
+  <si>
+    <t>FirstKey as Middle</t>
+  </si>
+  <si>
+    <t>FirstTitle</t>
+  </si>
+  <si>
+    <t>LastKey as Middle</t>
+  </si>
+  <si>
+    <t>LastTitle</t>
+  </si>
+  <si>
+    <t>The Rate 02</t>
+  </si>
+  <si>
+    <t>x as double</t>
+  </si>
+  <si>
+    <t>Lastx as double</t>
+  </si>
+  <si>
+    <t>Firstx as double</t>
   </si>
 </sst>
 </file>
@@ -438,10 +469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +492,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -468,10 +504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="F23:G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,9 +516,10 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -495,8 +532,11 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -510,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -524,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -538,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -552,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -566,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -580,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -594,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -606,6 +646,116 @@
       </c>
       <c r="D9">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/examples/javascript/forms/Test/TestSQLiteGroupBy/TestSQLiteGroupBy/Data/Book1.xlsx
+++ b/examples/javascript/forms/Test/TestSQLiteGroupBy/TestSQLiteGroupBy/Data/Book1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Foo0</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Firstx as double</t>
+  </si>
+  <si>
+    <t>SumOfx as double</t>
   </si>
 </sst>
 </file>
@@ -655,10 +658,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,9 +673,10 @@
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -697,8 +701,11 @@
       <c r="H1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -718,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -738,7 +745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
